--- a/db_streamlit.xlsx
+++ b/db_streamlit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adel\apply_web_application\web_application_apply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0A5135-639F-45C1-BB21-AA3415542AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73543AEB-DA50-430D-A317-7FCA25423F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>index</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>Fatemeh</t>
+  </si>
+  <si>
+    <t>fateme98123126</t>
+  </si>
+  <si>
+    <t>a09128058102</t>
   </si>
 </sst>
 </file>
@@ -584,13 +590,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.75" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
@@ -830,8 +837,8 @@
       <c r="H5" t="s">
         <v>50</v>
       </c>
-      <c r="J5">
-        <v>9128058102</v>
+      <c r="J5" t="s">
+        <v>60</v>
       </c>
       <c r="K5" t="s">
         <v>51</v>
@@ -871,8 +878,8 @@
       <c r="H6" t="s">
         <v>50</v>
       </c>
-      <c r="J6">
-        <v>9120949180</v>
+      <c r="J6" t="s">
+        <v>59</v>
       </c>
       <c r="K6" t="s">
         <v>57</v>

--- a/db_streamlit.xlsx
+++ b/db_streamlit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="b">
+      <c r="AB2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1038,6 +1038,98 @@
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>adelede14@gmail.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>psdc</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1950</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>lknlk</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>kmpk;</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>adel1654</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>jik</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>45</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Diploma</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>adel</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lknkln </t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="n">
+        <v>91</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
